--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.700000000000001e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.784528920123847</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -490,10 +492,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00156</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.955660812485599</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -501,10 +505,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008625000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.381335356050633</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -512,10 +518,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02852499999999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.902927546427803</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -523,10 +531,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.066925</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.499091100598346</v>
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -534,10 +544,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1185</v>
+        <v>0.000134</v>
       </c>
       <c r="C9" t="n">
-        <v>1.182518574047117</v>
+        <v>3.644415659062828</v>
       </c>
     </row>
     <row r="10">
@@ -545,10 +555,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.185075</v>
+        <v>0.0003547169811320754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8961924262906</v>
+        <v>3.385907098455037</v>
       </c>
     </row>
     <row r="11">
@@ -556,10 +566,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2560750000000001</v>
+        <v>0.0007358490566037738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6554936087654567</v>
+        <v>3.180207141756856</v>
       </c>
     </row>
     <row r="12">
@@ -567,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3303</v>
+        <v>0.001636363636363636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4390849275206673</v>
+        <v>2.940888109611635</v>
       </c>
     </row>
     <row r="13">
@@ -578,10 +588,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.404975</v>
+        <v>0.002633333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240490534962587</v>
+        <v>2.790254241633103</v>
       </c>
     </row>
     <row r="14">
@@ -589,10 +599,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4732500000000001</v>
+        <v>0.004375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06710263022541017</v>
+        <v>2.621670431583781</v>
       </c>
     </row>
     <row r="15">
@@ -600,10 +610,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.536225</v>
+        <v>0.00664</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09092775026571676</v>
+        <v>2.47617088256119</v>
       </c>
     </row>
     <row r="16">
@@ -611,10 +621,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.59365</v>
+        <v>0.009600000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2369443025011781</v>
+        <v>2.341624910132738</v>
       </c>
     </row>
     <row r="17">
@@ -622,10 +632,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6463249999999999</v>
+        <v>0.01286</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3754174891945991</v>
+        <v>2.230413562693577</v>
       </c>
     </row>
     <row r="18">
@@ -633,10 +643,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6919500000000001</v>
+        <v>0.01727142857142857</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5013852762777745</v>
+        <v>2.113677083098733</v>
       </c>
     </row>
     <row r="19">
@@ -644,10 +654,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.734575</v>
+        <v>0.023025</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.6267090049917223</v>
+        <v>1.994934721317912</v>
       </c>
     </row>
     <row r="20">
@@ -655,10 +665,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7691750000000001</v>
+        <v>0.028125</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7361326082550831</v>
+        <v>1.909093741201977</v>
       </c>
     </row>
     <row r="21">
@@ -666,10 +676,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7977000000000001</v>
+        <v>0.03365</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8334340107319603</v>
+        <v>1.829665318077902</v>
       </c>
     </row>
     <row r="22">
@@ -677,10 +687,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8236249999999999</v>
+        <v>0.041175</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9292684142157442</v>
+        <v>1.737210626025672</v>
       </c>
     </row>
     <row r="23">
@@ -688,10 +698,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.847175</v>
+        <v>0.048725</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.024392336920195</v>
+        <v>1.657343734295608</v>
       </c>
     </row>
     <row r="24">
@@ -699,10 +709,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8681749999999999</v>
+        <v>0.05595</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.117805668540746</v>
+        <v>1.589710836100376</v>
       </c>
     </row>
     <row r="25">
@@ -710,10 +720,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8816499999999999</v>
+        <v>0.06357499999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.183275447815454</v>
+        <v>1.525437545596604</v>
       </c>
     </row>
     <row r="26">
@@ -721,10 +731,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.898525</v>
+        <v>0.0736</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.2731917708148</v>
+        <v>1.449492834408675</v>
       </c>
     </row>
     <row r="27">
@@ -732,10 +742,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9102750000000001</v>
+        <v>0.08722500000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.342450407385912</v>
+        <v>1.35804312665929</v>
       </c>
     </row>
     <row r="28">
@@ -743,10 +753,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.922225</v>
+        <v>0.095425</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.420198157228286</v>
+        <v>1.308068725486306</v>
       </c>
     </row>
     <row r="29">
@@ -754,10 +764,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.930925</v>
+        <v>0.1035</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.482715555331355</v>
+        <v>1.261857686962573</v>
       </c>
     </row>
     <row r="30">
@@ -765,10 +775,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9395249999999999</v>
+        <v>0.112875</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.550798417422152</v>
+        <v>1.211379480241001</v>
       </c>
     </row>
     <row r="31">
@@ -776,10 +786,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.948725</v>
+        <v>0.1212</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.632614973651816</v>
+        <v>1.169009013177528</v>
       </c>
     </row>
     <row r="32">
@@ -787,10 +797,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.95375</v>
+        <v>0.135075</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.68235511288794</v>
+        <v>1.102717188487734</v>
       </c>
     </row>
     <row r="33">
@@ -798,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9591499999999999</v>
+        <v>0.14615</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.740906324151076</v>
+        <v>1.053089444810567</v>
       </c>
     </row>
     <row r="34">
@@ -809,10 +819,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9641</v>
+        <v>0.153675</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.800384161326843</v>
+        <v>1.020798321127335</v>
       </c>
     </row>
     <row r="35">
@@ -820,10 +830,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9675750000000001</v>
+        <v>0.16915</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.846290750829362</v>
+        <v>0.9575296267948954</v>
       </c>
     </row>
     <row r="36">
@@ -831,10 +841,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9707250000000001</v>
+        <v>0.18095</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.891557222575394</v>
+        <v>0.9117506392391251</v>
       </c>
     </row>
     <row r="37">
@@ -842,10 +852,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9739</v>
+        <v>0.188025</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.941480685032722</v>
+        <v>0.8851977233863437</v>
       </c>
     </row>
     <row r="38">
@@ -853,10 +863,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.976275</v>
+        <v>0.195025</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.982261326906886</v>
+        <v>0.8595266924418713</v>
       </c>
     </row>
     <row r="39">
@@ -864,10 +874,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9802</v>
+        <v>0.2101</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.057897226979147</v>
+        <v>0.8060743158272337</v>
       </c>
     </row>
     <row r="40">
@@ -875,10 +885,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9812000000000001</v>
+        <v>0.2229</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.07918880738819</v>
+        <v>0.7624357100575824</v>
       </c>
     </row>
     <row r="41">
@@ -886,10 +896,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.984225</v>
+        <v>0.23215</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.150065931053247</v>
+        <v>0.7317846820263837</v>
       </c>
     </row>
     <row r="42">
@@ -897,10 +907,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.985275</v>
+        <v>0.243975</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.177409868916538</v>
+        <v>0.6935730493853266</v>
       </c>
     </row>
     <row r="43">
@@ -908,10 +918,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.986775</v>
+        <v>0.257025</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.219540133400925</v>
+        <v>0.6525444620027855</v>
       </c>
     </row>
     <row r="44">
@@ -919,10 +929,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9878250000000001</v>
+        <v>0.2660250000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.251561442169706</v>
+        <v>0.624879725282265</v>
       </c>
     </row>
     <row r="45">
@@ -930,10 +940,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9893749999999999</v>
+        <v>0.277225</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.303512939072905</v>
+        <v>0.5911051043650822</v>
       </c>
     </row>
     <row r="46">
@@ -941,10 +951,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.990675</v>
+        <v>0.2835</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.352453927662107</v>
+        <v>0.5724753218505098</v>
       </c>
     </row>
     <row r="47">
@@ -952,10 +962,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9913000000000001</v>
+        <v>0.2968</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.378144623280708</v>
+        <v>0.5336264568490806</v>
       </c>
     </row>
     <row r="48">
@@ -963,10 +973,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9921500000000001</v>
+        <v>0.3085</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.415815833451568</v>
+        <v>0.5001066271622767</v>
       </c>
     </row>
     <row r="49">
@@ -974,10 +984,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9928</v>
+        <v>0.31285</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.447127221684156</v>
+        <v>0.4877880170402421</v>
       </c>
     </row>
     <row r="50">
@@ -985,10 +995,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.99325</v>
+        <v>0.324075</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.470299428362589</v>
+        <v>0.4563337471314755</v>
       </c>
     </row>
     <row r="51">
@@ -996,10 +1006,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9935499999999999</v>
+        <v>0.334125</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.48651812018559</v>
+        <v>0.4285510154901538</v>
       </c>
     </row>
     <row r="52">
@@ -1007,10 +1017,780 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9945999999999999</v>
+        <v>0.3456</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.549104283706177</v>
+        <v>0.3972270996891012</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3737369930736539</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.36295</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.3505846153818903</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.374325</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3204199555586953</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.38275</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2982661991488906</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3906</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2777555694385697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.402125</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.247850603784491</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4071</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2350112519270096</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.419025</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2043883927280205</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4254250000000001</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1880339979417698</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1661994401703589</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.444225</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1402657807519571</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.45035</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1247771217728968</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.45835</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1045914492499902</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.46755</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.08142998965678477</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.473525</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.06641176973198142</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.480925</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.04783216741287965</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.488575</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.02864214375982665</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.496775</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.008083964233309393</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5023</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.005765276969606803</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.510625</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.02663607471195379</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5168999999999999</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.04237469586520435</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5243</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.06094878101014536</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.52925</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.07338469044558865</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5356749999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.08954348037659222</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.54125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.1035833517040987</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5474000000000001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.1190951160922952</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.554725</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.1376082942921048</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5601</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.1512227560339675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.567425</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.1698221586045256</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5704750000000001</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.1775836065196956</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.578275</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.1974824677424198</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5845</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.2134192077291924</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5891999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.2254875624251232</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.59275</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.2346247474004351</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.600675</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.255094645068275</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.60595</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.2687786809207713</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6077</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.2733294228004204</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.614375</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.2907402311909695</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6194500000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.3040366097499161</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6202000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.3060061017097119</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6285499999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.3280154247758139</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.629125</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.3295367780389428</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.638625</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.3547858897201156</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6418999999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.3635420594608009</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.6470750000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.3774354854302926</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.652525</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.3921464612638276</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.6562249999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.4021821200026234</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.658825</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.4092584555607573</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.661475</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.4164920275431156</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.665425</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.4273148747848944</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.671975</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.4453733057660063</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6758999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.4562642059764304</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.680825</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.4700070229810688</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.6819500000000001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.4731586444587456</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.4958503473474532</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6909</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.498403032215759</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.694175</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.5077196014020718</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6975250000000001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.5172953494037404</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7016749999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.5292241004793952</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.70275</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.532326328740013</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.708775</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.5498095612717452</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.708875</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.5501011470324804</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.71495</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.5679042293213576</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.71895</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.579725120916495</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7153750000000001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.5691564090671292</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7247750000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.5970859467488678</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7232499999999999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.5925236331055853</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7276250000000001</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.6056457732822327</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7328750000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.6215314626138528</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7303500000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.613871870127876</v>
       </c>
     </row>
   </sheetData>

--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,239 +446,345 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ccr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cobr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>D0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002930769230769231</v>
+        <v>0.0003000279133529459</v>
       </c>
       <c r="C3" t="n">
-        <v>2.75542810691329</v>
+        <v>4.526369649835001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2095623912988644</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.707759372016028</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05453026170908815</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.00000076923055</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1707013005295874</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.700536940373135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178125</v>
+        <v>0.09756278684948169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9225341994982145</v>
+        <v>3.097552890460082</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2939620015761945</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.362390513027062</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06081699732624673</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.00000051418212</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2183862555095627</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.481593472871773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5094749999999999</v>
+        <v>0.9660954817420653</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.023752536175882</v>
+        <v>2.339261389802851</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3251228536729067</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.187569656619564</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06375064696403059</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.00000037385792</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2556444929982267</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.357040322856677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.72955</v>
+        <v>3.269101999744882</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6114525836898598</v>
+        <v>1.842636917585841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3438252131846757</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.060927236161948</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06537174168291479</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.00000028529069</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2833609562839821</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.276282716317997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.847</v>
+        <v>6.942092643917966</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.023651311556088</v>
+        <v>1.480117646981836</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.35650049930467</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.961757386677237</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06643439184469804</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.00000022329998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3048435172292439</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.218515083249065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9077999999999999</v>
+        <v>11.54233227679995</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.327328621361901</v>
+        <v>1.198180781524236</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3657831382792261</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.880563781576422</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06720167914886914</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.00000017691762</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3221403845216602</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.174530978623862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9405</v>
+        <v>16.61422089040822</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.558984706172256</v>
+        <v>0.9695227844418097</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3729503046042276</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.81212397809256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06779056799370374</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.00000014057076</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3364922804769168</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.139571414546613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9617249999999999</v>
+        <v>21.81562391667824</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.771064358797116</v>
+        <v>0.7784352268220107</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3786991279933967</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.753221044006117</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06826173341886306</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.00000011110663</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3486846793625561</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.110899301663192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9726</v>
+        <v>26.92416559290936</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.920458581829657</v>
+        <v>0.6151081322441048</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.383444382826738</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.701718888272351</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06865018418389852</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.0000000865967</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3592383919700816</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.086814971758343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.97905</v>
+        <v>31.80935505234115</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.034511999470508</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.984375</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-2.153874694061456</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9872</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-2.232226451790636</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9896750000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-2.314323202155571</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.990875</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-2.360506469376523</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.99255</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-2.434800552640058</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.993375</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-2.476978185758208</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9938750000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-2.504859627082955</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.994075</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-2.516579983980684</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.995275</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-2.595330503263084</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9951750000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.588124840336963</v>
+        <v>0.4730365529391044</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3874494703077917</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.656121840479332</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06897774885350344</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.00000006578931</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3685130175478593</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.066200229072916</v>
       </c>
     </row>
   </sheetData>

--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,28 +502,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003000279133529459</v>
+        <v>0.0003000279135487203</v>
       </c>
       <c r="C3" t="n">
-        <v>4.526369649835001</v>
+        <v>4.526369649697037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2095623912988644</v>
+        <v>0.2095623920513751</v>
       </c>
       <c r="E3" t="n">
-        <v>6.707759372016028</v>
+        <v>6.707759419366437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05453026170908815</v>
+        <v>0.05453026172903998</v>
       </c>
       <c r="G3" t="n">
         <v>10.00000076923055</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1707013005295874</v>
+        <v>0.1707013007489889</v>
       </c>
       <c r="I3" t="n">
-        <v>6.700536940373135</v>
+        <v>6.700536939649074</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09756278684948169</v>
+        <v>0.09756278754919503</v>
       </c>
       <c r="C4" t="n">
-        <v>3.097552890460082</v>
+        <v>3.097552888334384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2939620015761945</v>
+        <v>0.2939620015915846</v>
       </c>
       <c r="E4" t="n">
-        <v>6.362390513027062</v>
+        <v>6.362390484877183</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06081699732624673</v>
+        <v>0.06081699731684968</v>
       </c>
       <c r="G4" t="n">
         <v>10.00000051418212</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2183862555095627</v>
+        <v>0.2183862553690276</v>
       </c>
       <c r="I4" t="n">
-        <v>6.481593472871773</v>
+        <v>6.48159347330892</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9660954817420653</v>
+        <v>0.9660954794246239</v>
       </c>
       <c r="C5" t="n">
-        <v>2.339261389802851</v>
+        <v>2.339261390698957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3251228536729067</v>
+        <v>0.325122853723847</v>
       </c>
       <c r="E5" t="n">
-        <v>6.187569656619564</v>
+        <v>6.187569669544709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06375064696403059</v>
+        <v>0.06375064696627147</v>
       </c>
       <c r="G5" t="n">
         <v>10.00000037385792</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2556444929982267</v>
+        <v>0.2556444930808259</v>
       </c>
       <c r="I5" t="n">
-        <v>6.357040322856677</v>
+        <v>6.3570403226886</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>3.269101999744882</v>
+        <v>3.269102003909826</v>
       </c>
       <c r="C6" t="n">
-        <v>1.842636917585841</v>
+        <v>1.842636917015701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3438252131846757</v>
+        <v>0.3438252131197261</v>
       </c>
       <c r="E6" t="n">
-        <v>6.060927236161948</v>
+        <v>6.060927226699254</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06537174168291479</v>
+        <v>0.06537174168050354</v>
       </c>
       <c r="G6" t="n">
-        <v>10.00000028529069</v>
+        <v>10.00000028529068</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2833609562839821</v>
+        <v>0.2833609562232149</v>
       </c>
       <c r="I6" t="n">
-        <v>6.276282716317997</v>
+        <v>6.276282716435918</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>6.942092643917966</v>
+        <v>6.942092644013373</v>
       </c>
       <c r="C7" t="n">
-        <v>1.480117646981836</v>
+        <v>1.480117646974684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.35650049930467</v>
+        <v>0.3565004992969056</v>
       </c>
       <c r="E7" t="n">
-        <v>5.961757386677237</v>
+        <v>5.961757386759658</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06643439184469804</v>
+        <v>0.06643439184406161</v>
       </c>
       <c r="G7" t="n">
         <v>10.00000022329998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3048435172292439</v>
+        <v>0.3048435172386499</v>
       </c>
       <c r="I7" t="n">
-        <v>6.218515083249065</v>
+        <v>6.218515083270758</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>11.54233227679995</v>
+        <v>11.54233227524533</v>
       </c>
       <c r="C8" t="n">
-        <v>1.198180781524236</v>
+        <v>1.198180781604121</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3657831382792261</v>
+        <v>0.3657831382628037</v>
       </c>
       <c r="E8" t="n">
-        <v>5.880563781576422</v>
+        <v>5.880563783485114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06720167914886914</v>
+        <v>0.06720167914929051</v>
       </c>
       <c r="G8" t="n">
         <v>10.00000017691762</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3221403845216602</v>
+        <v>0.322140384547192</v>
       </c>
       <c r="I8" t="n">
-        <v>6.174530978623862</v>
+        <v>6.174530978587074</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>16.61422089040822</v>
+        <v>16.61422088916317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9695227844418097</v>
+        <v>0.9695227844917428</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3729503046042276</v>
+        <v>0.3729503046072736</v>
       </c>
       <c r="E9" t="n">
-        <v>5.81212397809256</v>
+        <v>5.812123979609679</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06779056799370374</v>
+        <v>0.06779056799395253</v>
       </c>
       <c r="G9" t="n">
         <v>10.00000014057076</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3364922804769168</v>
+        <v>0.3364922804949702</v>
       </c>
       <c r="I9" t="n">
-        <v>6.139571414546613</v>
+        <v>6.139571414520907</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>21.81562391667824</v>
+        <v>21.81562391978263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7784352268220107</v>
+        <v>0.7784352267166573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3786991279933967</v>
+        <v>0.3786991279833144</v>
       </c>
       <c r="E10" t="n">
-        <v>5.753221044006117</v>
+        <v>5.753221040541908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06826173341886306</v>
+        <v>0.06826173341749346</v>
       </c>
       <c r="G10" t="n">
         <v>10.00000011110663</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3486846793625561</v>
+        <v>0.3486846793264128</v>
       </c>
       <c r="I10" t="n">
-        <v>6.110899301663192</v>
+        <v>6.110899301744105</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>26.92416559290936</v>
+        <v>26.924165591606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6151081322441048</v>
+        <v>0.6151081322835791</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383444382826738</v>
+        <v>0.3834443828368677</v>
       </c>
       <c r="E11" t="n">
-        <v>5.701718888272351</v>
+        <v>5.701718890108989</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06865018418389852</v>
+        <v>0.06865018418430018</v>
       </c>
       <c r="G11" t="n">
         <v>10.0000000865967</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3592383919700816</v>
+        <v>0.3592383919922012</v>
       </c>
       <c r="I11" t="n">
-        <v>6.086814971758343</v>
+        <v>6.086814971728652</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>31.80935505234115</v>
+        <v>31.80935505369371</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4730365529391044</v>
+        <v>0.4730365529011873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3874494703077917</v>
+        <v>0.3874494702940679</v>
       </c>
       <c r="E12" t="n">
-        <v>5.656121840479332</v>
+        <v>5.656121838446441</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06897774885350344</v>
+        <v>0.06897774885270659</v>
       </c>
       <c r="G12" t="n">
         <v>10.00000006578931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3685130175478593</v>
+        <v>0.3685130175258373</v>
       </c>
       <c r="I12" t="n">
-        <v>6.066200229072916</v>
+        <v>6.066200229122493</v>
       </c>
     </row>
   </sheetData>

--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,32 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ccr</t>
+          <t>delta_pf</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cs</t>
+          <t>nsimul</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cobr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>D0</t>
+          <t>ttotal</t>
         </is>
       </c>
     </row>
@@ -487,43 +472,39 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8823332786560059</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003000279135487203</v>
+        <v>0.0005506493506493509</v>
       </c>
       <c r="C3" t="n">
-        <v>4.526369649697037</v>
+        <v>3.263282014038226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2095623920513751</v>
+        <v>0.04986702634283116</v>
       </c>
       <c r="E3" t="n">
-        <v>6.707759419366437</v>
+        <v>770000</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05453026172903998</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.00000076923055</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1707013007489889</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.700536939649074</v>
+        <v>16.93827366828918</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +512,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09756278754919503</v>
+        <v>0.026575</v>
       </c>
       <c r="C4" t="n">
-        <v>3.097552888334384</v>
+        <v>1.933700193877669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2939620015915846</v>
+        <v>0.02206884704912421</v>
       </c>
       <c r="E4" t="n">
-        <v>6.362390484877183</v>
+        <v>40000</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06081699731684968</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.00000051418212</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2183862553690276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.48159347330892</v>
+        <v>0.8803269863128662</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +532,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9660954794246239</v>
+        <v>0.109325</v>
       </c>
       <c r="C5" t="n">
-        <v>2.339261390698957</v>
+        <v>1.230125800172928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.325122853723847</v>
+        <v>0.01663476853631984</v>
       </c>
       <c r="E5" t="n">
-        <v>6.187569669544709</v>
+        <v>40000</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06375064696627147</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.00000037385792</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2556444930808259</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.3570403226886</v>
+        <v>0.8798191547393799</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +552,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>3.269102003909826</v>
+        <v>0.21755</v>
       </c>
       <c r="C6" t="n">
-        <v>1.842636917015701</v>
+        <v>0.7804942682385735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3438252131197261</v>
+        <v>0.01224885721223051</v>
       </c>
       <c r="E6" t="n">
-        <v>6.060927226699254</v>
+        <v>40000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06537174168050354</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.00000028529068</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2833609562232149</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.276282716435918</v>
+        <v>0.88033127784729</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +572,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>6.942092644013373</v>
+        <v>0.3295</v>
       </c>
       <c r="C7" t="n">
-        <v>1.480117646974684</v>
+        <v>0.4412942338305522</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3565004992969056</v>
+        <v>0.003743728491651491</v>
       </c>
       <c r="E7" t="n">
-        <v>5.961757386759658</v>
+        <v>40000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06643439184406161</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.00000022329998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.3048435172386499</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.218515083270758</v>
+        <v>0.8821210861206055</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +592,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>11.54233227524533</v>
+        <v>0.427675</v>
       </c>
       <c r="C8" t="n">
-        <v>1.198180781604121</v>
+        <v>0.1822965576765647</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3657831382628037</v>
+        <v>0.01142160255327343</v>
       </c>
       <c r="E8" t="n">
-        <v>5.880563783485114</v>
+        <v>40000</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06720167914929051</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.00000017691762</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.322140384547192</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.174530978587074</v>
+        <v>0.8838741779327393</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +612,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>16.61422088916317</v>
+        <v>0.506625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9695227844917428</v>
+        <v>-0.01660717565960738</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3729503046072736</v>
+        <v>0.00639821422656404</v>
       </c>
       <c r="E9" t="n">
-        <v>5.812123979609679</v>
+        <v>40000</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06779056799395253</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.00000014057076</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3364922804949702</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.139571414520907</v>
+        <v>0.8829212188720703</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +632,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>21.81562391978263</v>
+        <v>0.57575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7784352267166573</v>
+        <v>-0.1910326668233184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3786991279833144</v>
+        <v>0.002082427930251889</v>
       </c>
       <c r="E10" t="n">
-        <v>5.753221040541908</v>
+        <v>40000</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06826173341749346</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.00000011110663</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.3486846793264128</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.110899301744105</v>
+        <v>0.8830387592315674</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +652,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>26.924165591606</v>
+        <v>0.63305</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6151081322835791</v>
+        <v>-0.3399422744288194</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3834443828368677</v>
+        <v>0.008599689489296306</v>
       </c>
       <c r="E11" t="n">
-        <v>5.701718890108989</v>
+        <v>40000</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06865018418430018</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.0000000865967</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.3592383919922012</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.086814971728652</v>
+        <v>0.9039018154144287</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +672,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>31.80935505369371</v>
+        <v>0.6798250000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4730365529011873</v>
+        <v>-0.4672094964689675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3874494702940679</v>
+        <v>0.004231586959486647</v>
       </c>
       <c r="E12" t="n">
-        <v>5.656121838446441</v>
+        <v>40000</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06897774885270659</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.00000006578931</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.3685130175258373</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.066200229122493</v>
+        <v>0.889153003692627</v>
       </c>
     </row>
   </sheetData>

--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -484,7 +484,7 @@
         <v>40000</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8823332786560059</v>
+        <v>0.8847928047180176</v>
       </c>
     </row>
     <row r="3">
@@ -492,19 +492,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0005506493506493509</v>
+        <v>0.02255</v>
       </c>
       <c r="C3" t="n">
-        <v>3.263282014038226</v>
+        <v>2.003720584293644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04986702634283116</v>
+        <v>0.02663831676413871</v>
       </c>
       <c r="E3" t="n">
-        <v>770000</v>
+        <v>40000</v>
       </c>
       <c r="F3" t="n">
-        <v>16.93827366828918</v>
+        <v>0.8818743228912354</v>
       </c>
     </row>
     <row r="4">
@@ -512,19 +512,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.026575</v>
+        <v>0.22725</v>
       </c>
       <c r="C4" t="n">
-        <v>1.933700193877669</v>
+        <v>0.7479339473756899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02206884704912421</v>
+        <v>0.006628714369928027</v>
       </c>
       <c r="E4" t="n">
         <v>40000</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8803269863128662</v>
+        <v>0.8848710060119629</v>
       </c>
     </row>
     <row r="5">
@@ -532,19 +532,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.109325</v>
+        <v>0.460875</v>
       </c>
       <c r="C5" t="n">
-        <v>1.230125800172928</v>
+        <v>0.09822957319613868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01663476853631984</v>
+        <v>0.002439401172196884</v>
       </c>
       <c r="E5" t="n">
         <v>40000</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8798191547393799</v>
+        <v>0.8893394470214844</v>
       </c>
     </row>
     <row r="6">
@@ -552,19 +552,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.21755</v>
+        <v>0.6236999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7804942682385735</v>
+        <v>-0.3152129153796964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01224885721223051</v>
+        <v>0.00343690093157931</v>
       </c>
       <c r="E6" t="n">
         <v>40000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.88033127784729</v>
+        <v>0.8843319416046143</v>
       </c>
     </row>
     <row r="7">
@@ -572,19 +572,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3295</v>
+        <v>0.7318749999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4412942338305522</v>
+        <v>-0.6184936231909565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003743728491651491</v>
+        <v>0.002939182309082107</v>
       </c>
       <c r="E7" t="n">
         <v>40000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8821210861206055</v>
+        <v>0.8903462886810303</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +592,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.427675</v>
+        <v>0.8002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1822965576765647</v>
+        <v>-0.8423358313468804</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01142160255327343</v>
+        <v>0.0008821885605218933</v>
       </c>
       <c r="E8" t="n">
         <v>40000</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8838741779327393</v>
+        <v>0.8900976181030273</v>
       </c>
     </row>
     <row r="9">
@@ -612,19 +612,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.506625</v>
+        <v>0.8496750000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01660717565960738</v>
+        <v>-1.035040495019779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00639821422656404</v>
+        <v>0.001254193749704377</v>
       </c>
       <c r="E9" t="n">
         <v>40000</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8829212188720703</v>
+        <v>0.8990590572357178</v>
       </c>
     </row>
     <row r="10">
@@ -632,19 +632,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.57575</v>
+        <v>0.88395</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1910326668233184</v>
+        <v>-1.194966804508367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002082427930251889</v>
+        <v>0.002192914981037185</v>
       </c>
       <c r="E10" t="n">
         <v>40000</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8830387592315674</v>
+        <v>0.8848376274108887</v>
       </c>
     </row>
     <row r="11">
@@ -652,19 +652,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.63305</v>
+        <v>0.90765</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3399422744288194</v>
+        <v>-1.326421865940256</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008599689489296306</v>
+        <v>0.001717157948647412</v>
       </c>
       <c r="E11" t="n">
         <v>40000</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9039018154144287</v>
+        <v>0.8963565826416016</v>
       </c>
     </row>
     <row r="12">
@@ -672,19 +672,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6798250000000001</v>
+        <v>0.9243750000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4672094964689675</v>
+        <v>-1.435130197104094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004231586959486647</v>
+        <v>0.0009869373429765575</v>
       </c>
       <c r="E12" t="n">
         <v>40000</v>
       </c>
       <c r="F12" t="n">
-        <v>0.889153003692627</v>
+        <v>0.897871732711792</v>
       </c>
     </row>
   </sheetData>

--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,32 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ccr</t>
+          <t>delta_pf</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cs</t>
+          <t>nsimul</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cobr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>D0</t>
+          <t>ttotal</t>
         </is>
       </c>
     </row>
@@ -487,43 +472,39 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1536457538604736</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0001913094638896534</v>
+        <v>0.0005375000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>4.620607011603224</v>
+        <v>3.270124920298973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192508643506443</v>
+        <v>0.04973954926423639</v>
       </c>
       <c r="E3" t="n">
-        <v>6.654787454011753</v>
+        <v>480000</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0545983471814258</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.00000060945053</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1682193433617194</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.706902244677072</v>
+        <v>1.783666849136353</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +512,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0688077399871151</v>
+        <v>0.027375</v>
       </c>
       <c r="C4" t="n">
-        <v>3.199606193194987</v>
+        <v>1.920854923055176</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2906529389074924</v>
+        <v>0.0457806679798872</v>
       </c>
       <c r="E4" t="n">
-        <v>6.378314808467366</v>
+        <v>40000</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06048719696927914</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.0000004147297</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.213104269255283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.494030020558345</v>
+        <v>0.1491427421569824</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +532,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7359434718842049</v>
+        <v>0.11135</v>
       </c>
       <c r="C5" t="n">
-        <v>2.439223311761832</v>
+        <v>1.219379992906003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3219830703363</v>
+        <v>0.01080485802920025</v>
       </c>
       <c r="E5" t="n">
-        <v>6.206287627881398</v>
+        <v>40000</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06347854563060527</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.00000030472815</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2498176512515811</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.369981898609346</v>
+        <v>0.1536412239074707</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +552,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>2.613264279037702</v>
+        <v>0.21815</v>
       </c>
       <c r="C6" t="n">
-        <v>1.94094222489342</v>
+        <v>0.7784564008242728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3408673686107138</v>
+        <v>0.007048291020007383</v>
       </c>
       <c r="E6" t="n">
-        <v>6.081905605234644</v>
+        <v>40000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06512678836101002</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.00000023501872</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2773292915926435</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.289313159024523</v>
+        <v>0.1536915302276611</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +572,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>5.740122728468732</v>
+        <v>0.3249</v>
       </c>
       <c r="C7" t="n">
-        <v>1.576969885141299</v>
+        <v>0.4540400514051791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3536900745184293</v>
+        <v>0.01099091285521644</v>
       </c>
       <c r="E7" t="n">
-        <v>5.984527601611473</v>
+        <v>40000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06620498589818077</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.00000018610856</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.298734611370809</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.231497930027943</v>
+        <v>0.1506402492523193</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +592,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>9.787748525365863</v>
+        <v>0.424075</v>
       </c>
       <c r="C8" t="n">
-        <v>1.293740790809003</v>
+        <v>0.1914794234345971</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3630893028586671</v>
+        <v>0.005653949299772373</v>
       </c>
       <c r="E8" t="n">
-        <v>5.904756271696725</v>
+        <v>40000</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06698252721853817</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.00000014945386</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3160089076036252</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.187415671580515</v>
+        <v>0.1501455307006836</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +612,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>14.36795631182449</v>
+        <v>0.509125</v>
       </c>
       <c r="C9" t="n">
-        <v>1.063932836906143</v>
+        <v>-0.02287497779382064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3703497931481861</v>
+        <v>0.00758867731567308</v>
       </c>
       <c r="E9" t="n">
-        <v>5.837455590881078</v>
+        <v>40000</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06757891348760123</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.0000001206973</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3303630759616117</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.152340473049778</v>
+        <v>0.1496400833129883</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +632,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>19.16532588161299</v>
+        <v>0.5729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8718201180526489</v>
+        <v>-0.1837622141686859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3761747259219836</v>
+        <v>0.004081771300324505</v>
       </c>
       <c r="E10" t="n">
-        <v>5.779474563933231</v>
+        <v>40000</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06805599007840279</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.00000009736691</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.3425691451501399</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.123549166433854</v>
+        <v>0.1501455307006836</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +652,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>23.96044806179229</v>
+        <v>0.628825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7075754204374021</v>
+        <v>-0.3287429335743672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.380983227486461</v>
+        <v>0.003301082268447989</v>
       </c>
       <c r="E11" t="n">
-        <v>5.728725821716795</v>
+        <v>40000</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06844936377950944</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.0000000779474</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.3531415014081588</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.099348067624545</v>
+        <v>0.1496388912200928</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +672,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>28.61464120618663</v>
+        <v>0.6840499999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5646779656225637</v>
+        <v>-0.4790542997262808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3850417880997006</v>
+        <v>0.001368115892280084</v>
       </c>
       <c r="E12" t="n">
-        <v>5.683749643200663</v>
+        <v>40000</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06878119396132025</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.00000006145358</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.3624365738602837</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.078621435102947</v>
+        <v>0.1511466503143311</v>
       </c>
     </row>
   </sheetData>

--- a/dados_td.xlsx
+++ b/dados_td.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,7 +484,7 @@
         <v>40000</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1536457538604736</v>
+        <v>0.1570122241973877</v>
       </c>
     </row>
     <row r="3">
@@ -492,19 +492,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0005375000000000001</v>
+        <v>0.0005620689655172413</v>
       </c>
       <c r="C3" t="n">
-        <v>3.270124920298973</v>
+        <v>3.257460776041866</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04973954926423639</v>
+        <v>0.04981144794396205</v>
       </c>
       <c r="E3" t="n">
-        <v>480000</v>
+        <v>870000</v>
       </c>
       <c r="F3" t="n">
-        <v>1.783666849136353</v>
+        <v>3.419593095779419</v>
       </c>
     </row>
     <row r="4">
@@ -512,19 +512,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.027375</v>
+        <v>0.0273</v>
       </c>
       <c r="C4" t="n">
-        <v>1.920854923055176</v>
+        <v>1.92204576064532</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0457806679798872</v>
+        <v>0.0241591684217468</v>
       </c>
       <c r="E4" t="n">
         <v>40000</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1491427421569824</v>
+        <v>0.1566693782806396</v>
       </c>
     </row>
     <row r="5">
@@ -532,19 +532,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11135</v>
+        <v>0.108575</v>
       </c>
       <c r="C5" t="n">
-        <v>1.219379992906003</v>
+        <v>1.234141987710155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01080485802920025</v>
+        <v>0.006374102293961878</v>
       </c>
       <c r="E5" t="n">
         <v>40000</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1536412239074707</v>
+        <v>0.1570675373077393</v>
       </c>
     </row>
     <row r="6">
@@ -552,19 +552,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.21815</v>
+        <v>0.220125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7784564008242728</v>
+        <v>0.7717711191468344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007048291020007383</v>
+        <v>0.009042819279258679</v>
       </c>
       <c r="E6" t="n">
         <v>40000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1536915302276611</v>
+        <v>0.1716439723968506</v>
       </c>
     </row>
     <row r="7">
@@ -572,19 +572,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3249</v>
+        <v>0.3304</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4540400514051791</v>
+        <v>0.4388089150849589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01099091285521644</v>
+        <v>0.006304075709402168</v>
       </c>
       <c r="E7" t="n">
         <v>40000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1506402492523193</v>
+        <v>0.1420478820800781</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +592,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.424075</v>
+        <v>0.4281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1914794234345971</v>
+        <v>0.1812134981668126</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005653949299772373</v>
+        <v>0.004203543511985812</v>
       </c>
       <c r="E8" t="n">
         <v>40000</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1501455307006836</v>
+        <v>0.1586689949035645</v>
       </c>
     </row>
     <row r="9">
@@ -612,19 +612,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.509125</v>
+        <v>0.5023500000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02287497779382064</v>
+        <v>-0.005890610511874959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00758867731567308</v>
+        <v>0.003924901792185589</v>
       </c>
       <c r="E9" t="n">
         <v>40000</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1496400833129883</v>
+        <v>0.1710374355316162</v>
       </c>
     </row>
     <row r="10">
@@ -632,19 +632,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5729</v>
+        <v>0.575325</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1837622141686859</v>
+        <v>-0.1899478450175356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004081771300324505</v>
+        <v>0.002404656202409595</v>
       </c>
       <c r="E10" t="n">
         <v>40000</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1501455307006836</v>
+        <v>0.1570687294006348</v>
       </c>
     </row>
     <row r="11">
@@ -652,19 +652,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.628825</v>
+        <v>0.631325</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3287429335743672</v>
+        <v>-0.3353646906743865</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003301082268447989</v>
+        <v>0.003031951680031619</v>
       </c>
       <c r="E11" t="n">
         <v>40000</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1496388912200928</v>
+        <v>0.1566581726074219</v>
       </c>
     </row>
     <row r="12">
@@ -672,19 +672,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6840499999999999</v>
+        <v>0.6766</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4790542997262808</v>
+        <v>-0.4582121940837008</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001368115892280084</v>
+        <v>0.001662314791493412</v>
       </c>
       <c r="E12" t="n">
         <v>40000</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1511466503143311</v>
+        <v>0.1570498943328857</v>
       </c>
     </row>
   </sheetData>
